--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -23,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="274">
   <si>
     <t>PERIOD</t>
   </si>
@@ -909,6 +909,12 @@
   </si>
   <si>
     <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>12/11,13/2023</t>
+  </si>
+  <si>
+    <t>12/20,22,27,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1938,9 +1944,9 @@
   <dimension ref="A2:K321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A268" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
+      <selection pane="bottomLeft" activeCell="J306" sqref="J306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8865,13 +8871,15 @@
       <c r="B305" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C305" s="13"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
@@ -8884,63 +8892,91 @@
       <c r="A306" s="40">
         <v>45199</v>
       </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="13"/>
+      <c r="B306" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H306" s="39"/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H306" s="39">
+        <v>1</v>
+      </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="20"/>
+      <c r="K306" s="50">
+        <v>45195</v>
+      </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45230</v>
       </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="B307" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H307" s="39"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H307" s="39">
+        <v>1</v>
+      </c>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="20"/>
+      <c r="K307" s="50">
+        <v>45211</v>
+      </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45260</v>
       </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
+      <c r="B308" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H308" s="39"/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H308" s="39">
+        <v>1</v>
+      </c>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="20"/>
+      <c r="K308" s="50">
+        <v>45261</v>
+      </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45291</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="39"/>
+      <c r="D309" s="39">
+        <v>5</v>
+      </c>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
       <c r="G309" s="13" t="str">
@@ -8950,11 +8986,15 @@
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20"/>
+      <c r="K309" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
-      <c r="B310" s="20"/>
+      <c r="B310" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
@@ -8963,10 +9003,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H310" s="39"/>
+      <c r="H310" s="39">
+        <v>2</v>
+      </c>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20"/>
+      <c r="K310" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
